--- a/SchedulingData/static7/pso/scheduling1_19.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_19.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.58</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>25.632</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49.34</v>
+        <v>84.58</v>
       </c>
       <c r="E3" t="n">
-        <v>26.256</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="4">
@@ -504,93 +504,93 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>74.84</v>
+        <v>132.6</v>
       </c>
       <c r="E4" t="n">
-        <v>26.656</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.34</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>134.54</v>
+        <v>52.16</v>
       </c>
       <c r="E5" t="n">
-        <v>22.336</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6</v>
       </c>
       <c r="D6" t="n">
-        <v>66.40000000000001</v>
+        <v>189.6</v>
       </c>
       <c r="E6" t="n">
-        <v>24.06</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55.58</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>146.18</v>
+        <v>38.3</v>
       </c>
       <c r="E7" t="n">
-        <v>20.692</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>74.84</v>
+        <v>52.16</v>
       </c>
       <c r="D8" t="n">
-        <v>131.38</v>
+        <v>123.26</v>
       </c>
       <c r="E8" t="n">
-        <v>22.132</v>
+        <v>22.464</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>48.3</v>
+        <v>62.32</v>
       </c>
       <c r="E9" t="n">
-        <v>27.36</v>
+        <v>26.928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>84.58</v>
       </c>
       <c r="D10" t="n">
-        <v>48.98</v>
+        <v>152.38</v>
       </c>
       <c r="E10" t="n">
-        <v>27.272</v>
+        <v>22.012</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>131.38</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>202.38</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>18.612</v>
+        <v>25.476</v>
       </c>
     </row>
     <row r="12">
@@ -656,112 +656,112 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66.40000000000001</v>
+        <v>152.38</v>
       </c>
       <c r="D12" t="n">
-        <v>122.2</v>
+        <v>192.18</v>
       </c>
       <c r="E12" t="n">
-        <v>19.12</v>
+        <v>19.652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>134.54</v>
+        <v>192.18</v>
       </c>
       <c r="D13" t="n">
-        <v>217.12</v>
+        <v>234.38</v>
       </c>
       <c r="E13" t="n">
-        <v>17.188</v>
+        <v>16.572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>122.2</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>176.2</v>
+        <v>143.08</v>
       </c>
       <c r="E14" t="n">
-        <v>15.34</v>
+        <v>22.452</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>217.12</v>
+        <v>123.26</v>
       </c>
       <c r="D15" t="n">
-        <v>278.22</v>
+        <v>187.16</v>
       </c>
       <c r="E15" t="n">
-        <v>13.188</v>
+        <v>18.684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>146.18</v>
+        <v>143.08</v>
       </c>
       <c r="D16" t="n">
-        <v>201.8</v>
+        <v>199.04</v>
       </c>
       <c r="E16" t="n">
-        <v>17.26</v>
+        <v>18.476</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>48.3</v>
+        <v>199.04</v>
       </c>
       <c r="D17" t="n">
-        <v>108.1</v>
+        <v>237.62</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>15.748</v>
       </c>
     </row>
     <row r="18">
@@ -770,435 +770,435 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48.98</v>
+        <v>237.62</v>
       </c>
       <c r="D18" t="n">
-        <v>97.98</v>
+        <v>284.88</v>
       </c>
       <c r="E18" t="n">
-        <v>23.992</v>
+        <v>13.152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>278.22</v>
+        <v>189.6</v>
       </c>
       <c r="D19" t="n">
-        <v>336.22</v>
+        <v>260.1</v>
       </c>
       <c r="E19" t="n">
-        <v>9.028</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>108.1</v>
+        <v>260.1</v>
       </c>
       <c r="D20" t="n">
-        <v>171.84</v>
+        <v>300.1</v>
       </c>
       <c r="E20" t="n">
-        <v>19.736</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>201.8</v>
+        <v>234.38</v>
       </c>
       <c r="D21" t="n">
-        <v>253.56</v>
+        <v>284.12</v>
       </c>
       <c r="E21" t="n">
-        <v>13.724</v>
+        <v>13.228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>97.98</v>
+        <v>187.16</v>
       </c>
       <c r="D22" t="n">
-        <v>167.38</v>
+        <v>236.26</v>
       </c>
       <c r="E22" t="n">
-        <v>18.672</v>
+        <v>15.404</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>167.38</v>
+        <v>284.12</v>
       </c>
       <c r="D23" t="n">
-        <v>216.32</v>
+        <v>357.46</v>
       </c>
       <c r="E23" t="n">
-        <v>15.408</v>
+        <v>9.484</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>216.32</v>
+        <v>62.32</v>
       </c>
       <c r="D24" t="n">
-        <v>278.24</v>
+        <v>130</v>
       </c>
       <c r="E24" t="n">
-        <v>12.336</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>278.24</v>
+        <v>130</v>
       </c>
       <c r="D25" t="n">
-        <v>326.84</v>
+        <v>194.46</v>
       </c>
       <c r="E25" t="n">
-        <v>8.616</v>
+        <v>17.464</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>253.56</v>
+        <v>38.3</v>
       </c>
       <c r="D26" t="n">
-        <v>316.58</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>10.032</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>202.38</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>250.18</v>
+        <v>155.6</v>
       </c>
       <c r="E27" t="n">
-        <v>15.972</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>326.84</v>
+        <v>300.1</v>
       </c>
       <c r="D28" t="n">
-        <v>387.14</v>
+        <v>344.04</v>
       </c>
       <c r="E28" t="n">
-        <v>5.696</v>
+        <v>4.896</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>176.2</v>
+        <v>194.46</v>
       </c>
       <c r="D29" t="n">
-        <v>227.3</v>
+        <v>254.34</v>
       </c>
       <c r="E29" t="n">
-        <v>11.86</v>
+        <v>13.096</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>227.3</v>
+        <v>284.88</v>
       </c>
       <c r="D30" t="n">
-        <v>318.12</v>
+        <v>343.48</v>
       </c>
       <c r="E30" t="n">
-        <v>7.388</v>
+        <v>9.432</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>250.18</v>
+        <v>343.48</v>
       </c>
       <c r="D31" t="n">
-        <v>307.78</v>
+        <v>406.2</v>
       </c>
       <c r="E31" t="n">
-        <v>11.832</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>307.78</v>
+        <v>236.26</v>
       </c>
       <c r="D32" t="n">
-        <v>357.34</v>
+        <v>304.22</v>
       </c>
       <c r="E32" t="n">
-        <v>7.516</v>
+        <v>11.708</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>387.14</v>
+        <v>155.6</v>
       </c>
       <c r="D33" t="n">
-        <v>444.34</v>
+        <v>215.7</v>
       </c>
       <c r="E33" t="n">
-        <v>2.616</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>171.84</v>
+        <v>215.7</v>
       </c>
       <c r="D34" t="n">
-        <v>248.8</v>
+        <v>267.72</v>
       </c>
       <c r="E34" t="n">
-        <v>17.14</v>
+        <v>11.928</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>336.22</v>
+        <v>357.46</v>
       </c>
       <c r="D35" t="n">
-        <v>379.58</v>
+        <v>418.66</v>
       </c>
       <c r="E35" t="n">
-        <v>5.332</v>
+        <v>6.004</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>318.12</v>
+        <v>304.22</v>
       </c>
       <c r="D36" t="n">
-        <v>391.24</v>
+        <v>391.36</v>
       </c>
       <c r="E36" t="n">
-        <v>4.196</v>
+        <v>8.584</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>248.8</v>
+        <v>418.66</v>
       </c>
       <c r="D37" t="n">
-        <v>319.1</v>
+        <v>479.8</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>319.1</v>
+        <v>391.36</v>
       </c>
       <c r="D38" t="n">
-        <v>374.56</v>
+        <v>455.86</v>
       </c>
       <c r="E38" t="n">
-        <v>8.824</v>
+        <v>5.224</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>374.56</v>
+        <v>267.72</v>
       </c>
       <c r="D39" t="n">
-        <v>411.68</v>
+        <v>318.24</v>
       </c>
       <c r="E39" t="n">
-        <v>5.752</v>
+        <v>8.496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>316.58</v>
+        <v>254.34</v>
       </c>
       <c r="D40" t="n">
-        <v>383.68</v>
+        <v>333.28</v>
       </c>
       <c r="E40" t="n">
-        <v>5.952</v>
+        <v>8.832000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>383.68</v>
+        <v>455.86</v>
       </c>
       <c r="D41" t="n">
-        <v>449.64</v>
+        <v>549.5599999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>1.976</v>
+        <v>1.444</v>
       </c>
     </row>
     <row r="42">
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>449.64</v>
+        <v>549.5599999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>532.29</v>
+        <v>623.67</v>
       </c>
       <c r="E42" t="n">
         <v>30</v>
@@ -1245,55 +1245,55 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>357.34</v>
+        <v>344.04</v>
       </c>
       <c r="D43" t="n">
-        <v>402.2</v>
+        <v>404.34</v>
       </c>
       <c r="E43" t="n">
-        <v>5.14</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>391.24</v>
+        <v>404.34</v>
       </c>
       <c r="D44" t="n">
-        <v>451.76</v>
+        <v>503.89</v>
       </c>
       <c r="E44" t="n">
-        <v>1.284</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>451.76</v>
+        <v>333.28</v>
       </c>
       <c r="D45" t="n">
-        <v>530.99</v>
+        <v>375.98</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>6.192</v>
       </c>
     </row>
     <row r="46">
@@ -1302,52 +1302,52 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>411.68</v>
+        <v>375.98</v>
       </c>
       <c r="D46" t="n">
-        <v>491.28</v>
+        <v>443.9</v>
       </c>
       <c r="E46" t="n">
-        <v>0.892</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>491.28</v>
+        <v>406.2</v>
       </c>
       <c r="D47" t="n">
-        <v>556.5</v>
+        <v>436.36</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>3.404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>444.34</v>
+        <v>443.9</v>
       </c>
       <c r="D48" t="n">
-        <v>545.41</v>
+        <v>530.4</v>
       </c>
       <c r="E48" t="n">
         <v>30</v>
@@ -1355,78 +1355,78 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>545.41</v>
+        <v>530.4</v>
       </c>
       <c r="D49" t="n">
-        <v>605.21</v>
+        <v>576.3200000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>26.22</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>605.21</v>
+        <v>623.67</v>
       </c>
       <c r="D50" t="n">
-        <v>701.25</v>
+        <v>674.59</v>
       </c>
       <c r="E50" t="n">
-        <v>23.196</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>379.58</v>
+        <v>436.36</v>
       </c>
       <c r="D51" t="n">
-        <v>451.08</v>
+        <v>535.95</v>
       </c>
       <c r="E51" t="n">
-        <v>1.812</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>451.08</v>
+        <v>535.95</v>
       </c>
       <c r="D52" t="n">
-        <v>544.0599999999999</v>
+        <v>612.27</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="53">
@@ -1435,17 +1435,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>544.0599999999999</v>
+        <v>318.24</v>
       </c>
       <c r="D53" t="n">
-        <v>614.16</v>
+        <v>382.74</v>
       </c>
       <c r="E53" t="n">
-        <v>26.64</v>
+        <v>3.176</v>
       </c>
     </row>
     <row r="54">
@@ -1454,79 +1454,79 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>556.5</v>
+        <v>576.3200000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>636.08</v>
+        <v>656.42</v>
       </c>
       <c r="E54" t="n">
-        <v>26.172</v>
+        <v>24.168</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>614.16</v>
+        <v>503.89</v>
       </c>
       <c r="D55" t="n">
-        <v>670.72</v>
+        <v>559.49</v>
       </c>
       <c r="E55" t="n">
-        <v>23.104</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>636.08</v>
+        <v>479.8</v>
       </c>
       <c r="D56" t="n">
-        <v>676.08</v>
+        <v>519.76</v>
       </c>
       <c r="E56" t="n">
-        <v>23.812</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>402.2</v>
+        <v>519.76</v>
       </c>
       <c r="D57" t="n">
-        <v>445.12</v>
+        <v>615.91</v>
       </c>
       <c r="E57" t="n">
-        <v>1.488</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>445.12</v>
+        <v>382.74</v>
       </c>
       <c r="D58" t="n">
-        <v>548.54</v>
+        <v>458.09</v>
       </c>
       <c r="E58" t="n">
         <v>30</v>
@@ -1549,74 +1549,74 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>670.72</v>
+        <v>458.09</v>
       </c>
       <c r="D59" t="n">
-        <v>735.74</v>
+        <v>516.8099999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>20.192</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>532.29</v>
+        <v>516.8099999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>585.53</v>
+        <v>577.17</v>
       </c>
       <c r="E60" t="n">
-        <v>26.876</v>
+        <v>22.392</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>530.99</v>
+        <v>577.17</v>
       </c>
       <c r="D61" t="n">
-        <v>600.95</v>
+        <v>638.01</v>
       </c>
       <c r="E61" t="n">
-        <v>27.144</v>
+        <v>19.428</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>735.74</v>
+        <v>559.49</v>
       </c>
       <c r="D62" t="n">
-        <v>791.38</v>
+        <v>635.55</v>
       </c>
       <c r="E62" t="n">
-        <v>17.228</v>
+        <v>21.604</v>
       </c>
     </row>
     <row r="63">
@@ -1625,17 +1625,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>701.25</v>
+        <v>612.27</v>
       </c>
       <c r="D63" t="n">
-        <v>752.89</v>
+        <v>664.97</v>
       </c>
       <c r="E63" t="n">
-        <v>20.172</v>
+        <v>21.388</v>
       </c>
     </row>
   </sheetData>
